--- a/data/trans_dic/P19C04-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1666287483977189</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1807204612956174</v>
+        <v>0.1807204612956173</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2210442750077318</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2330473161526345</v>
+        <v>0.2313988694820737</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2976763975989369</v>
+        <v>0.2973435771885252</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2268488378266989</v>
+        <v>0.224581066556779</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2794093565128888</v>
+        <v>0.2794225863712713</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1626976122482708</v>
+        <v>0.1636261151580731</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2063132185871954</v>
+        <v>0.2030283381388343</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1429961978582314</v>
+        <v>0.1428928485907892</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1559244086559519</v>
+        <v>0.1565549887432306</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1961686495615955</v>
+        <v>0.1969198053702464</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2563472567565072</v>
+        <v>0.2554021248223219</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1892712435929905</v>
+        <v>0.1875108064705866</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2173623924808785</v>
+        <v>0.2161317945981175</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3191411385792158</v>
+        <v>0.3248039014821426</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3641050617424028</v>
+        <v>0.3633559404036359</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2897139404143602</v>
+        <v>0.2863733850856798</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3695294820969473</v>
+        <v>0.3754557603574903</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2214844860019839</v>
+        <v>0.2255053312629035</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.258134361712324</v>
+        <v>0.2599818567556243</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1937438246977351</v>
+        <v>0.193508478057305</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2083366319318878</v>
+        <v>0.2080773361895272</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2449089788024693</v>
+        <v>0.2462417563518572</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.300483785620449</v>
+        <v>0.2979026108242165</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2269449725046538</v>
+        <v>0.2288903696676196</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2660839831224304</v>
+        <v>0.2653733591390461</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2108684627037935</v>
+        <v>0.2071422291478255</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2311087674947837</v>
+        <v>0.2357924067690977</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1282355675348</v>
+        <v>0.1314526515968195</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1554959052578612</v>
+        <v>0.1533829161136319</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1372049281098455</v>
+        <v>0.1378986735951597</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.154367385453365</v>
+        <v>0.1564856604052514</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1080917954387902</v>
+        <v>0.1061967759373703</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.112518826234464</v>
+        <v>0.1128797283525052</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1798940249723385</v>
+        <v>0.1802371558296725</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2005723561474771</v>
+        <v>0.1991390433500539</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1266175816781777</v>
+        <v>0.1252197870648898</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1372178901831981</v>
+        <v>0.1384684159814443</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.271006868122507</v>
+        <v>0.2677182566158301</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2952874424768835</v>
+        <v>0.297767412117118</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.182576565923397</v>
+        <v>0.1841207821111905</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2072218251551409</v>
+        <v>0.2102887269443312</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1879998419704442</v>
+        <v>0.187140178425889</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2061734268525237</v>
+        <v>0.2083407132232149</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1578582668070823</v>
+        <v>0.1594313094969914</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1451980007746297</v>
+        <v>0.1436957117933287</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2196905175776916</v>
+        <v>0.2196803715340485</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2403956780094093</v>
+        <v>0.2379594405747379</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1611728412902314</v>
+        <v>0.1605785715091359</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1682927331632046</v>
+        <v>0.1673021202170503</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1426250230483657</v>
+        <v>0.1436470754705605</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1787552173903534</v>
+        <v>0.1783327557071339</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1147187753043449</v>
+        <v>0.1125263174797342</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1125113849593918</v>
+        <v>0.109817514087675</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08572853480203092</v>
+        <v>0.0860193123909738</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1139964824379616</v>
+        <v>0.1148591943029966</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07940119881260778</v>
+        <v>0.07914789747654692</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08674607347885351</v>
+        <v>0.08610308019673769</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1183148466204211</v>
+        <v>0.1208128253904656</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1529821248837265</v>
+        <v>0.1534336445776308</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1033168894826541</v>
+        <v>0.1046115798814638</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1042889735598135</v>
+        <v>0.1043782978749533</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1943788255402845</v>
+        <v>0.1929133378104273</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2376473114345455</v>
+        <v>0.2390693893554985</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1698986779444309</v>
+        <v>0.165325969605957</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1552601169606334</v>
+        <v>0.154689305225663</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.128718610485187</v>
+        <v>0.1276427494491395</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1622371250073357</v>
+        <v>0.1631815001053199</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1271915014603464</v>
+        <v>0.1277998948661676</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1177056731933673</v>
+        <v>0.118380669503523</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.15310409739178</v>
+        <v>0.1558619956120003</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1905531285662966</v>
+        <v>0.1919947817750593</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1397362094784958</v>
+        <v>0.1397052716003749</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1308043600687489</v>
+        <v>0.1308699058129682</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1181742077558248</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08521618677248065</v>
+        <v>0.08521618677248066</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07838486114128913</v>
+        <v>0.07939336609211881</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1064193284997667</v>
+        <v>0.1039281586347738</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.111792730870505</v>
+        <v>0.109431314748236</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.077153943961612</v>
+        <v>0.08011073026668919</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06635981615798803</v>
+        <v>0.06375921220392762</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0715210958961173</v>
+        <v>0.06874015555759236</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06801757329690886</v>
+        <v>0.06752557500203786</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05774250041587178</v>
+        <v>0.05834589030248433</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08174406283423748</v>
+        <v>0.07897108350636624</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09871124621363421</v>
+        <v>0.09661113025137982</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09571077835322397</v>
+        <v>0.09697132926664485</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07368467360854089</v>
+        <v>0.07281788889755157</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1459982469332047</v>
+        <v>0.1477325712831285</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.176068806870888</v>
+        <v>0.1772836549909083</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1835443045537681</v>
+        <v>0.1807655505133416</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1178053982079303</v>
+        <v>0.1198958072778585</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1349444263886284</v>
+        <v>0.1316516467717564</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1331455688787087</v>
+        <v>0.1291052573459313</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1257938682409675</v>
+        <v>0.1238064010023052</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08791714248515183</v>
+        <v>0.08843521525852627</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1301864080879941</v>
+        <v>0.1274763753763383</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.145232471370454</v>
+        <v>0.1433140315847611</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1425246650766424</v>
+        <v>0.1438509191213575</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09870929424055919</v>
+        <v>0.09907097949725269</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1789036125496719</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1608641531182556</v>
+        <v>0.1608641531182557</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1453644323359792</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.184344189178569</v>
+        <v>0.1841268502161437</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2314723765889232</v>
+        <v>0.2294679089737325</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1644307087756336</v>
+        <v>0.162887470757398</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.148147995366817</v>
+        <v>0.1486248566338583</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1309814087070522</v>
+        <v>0.1326827690552181</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1594373891883073</v>
+        <v>0.1599890965981337</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1167326414989774</v>
+        <v>0.1174194047081382</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1071676158741282</v>
+        <v>0.1071218038493837</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.160105773406559</v>
+        <v>0.1607535394617079</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1987477091133358</v>
+        <v>0.1990381625173866</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1440130641890193</v>
+        <v>0.1433144206168423</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1296855368674502</v>
+        <v>0.1301593232135226</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2167854665268241</v>
+        <v>0.2161403684004973</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2651546880792648</v>
+        <v>0.2648667344449975</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1950807861778993</v>
+        <v>0.1941334921227498</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1738984632426615</v>
+        <v>0.1745776319310194</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1601417323506991</v>
+        <v>0.158760065276733</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1867661631985613</v>
+        <v>0.1892185230064131</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1427075878684942</v>
+        <v>0.1435630146443936</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.124043788381318</v>
+        <v>0.1246847037539547</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1814287429498717</v>
+        <v>0.1827405485967935</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2213238523978263</v>
+        <v>0.2199385403768081</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1641006331238439</v>
+        <v>0.1630979305690251</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1462576577525388</v>
+        <v>0.1458314309057605</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>92267</v>
+        <v>91614</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>245699</v>
+        <v>245425</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>177932</v>
+        <v>176153</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>126037</v>
+        <v>126043</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>118868</v>
+        <v>119546</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>195468</v>
+        <v>192356</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>131788</v>
+        <v>131693</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>91870</v>
+        <v>92241</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>220988</v>
+        <v>221834</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>454459</v>
+        <v>452783</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>322893</v>
+        <v>319890</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>226117</v>
+        <v>224837</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>126353</v>
+        <v>128595</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>300529</v>
+        <v>299911</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>227241</v>
+        <v>224621</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>166689</v>
+        <v>169362</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>161818</v>
+        <v>164756</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>244565</v>
+        <v>246315</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>178558</v>
+        <v>178341</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>122750</v>
+        <v>122598</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>275895</v>
+        <v>277397</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>532705</v>
+        <v>528129</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>387164</v>
+        <v>390483</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>276801</v>
+        <v>276062</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>168510</v>
+        <v>165533</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>194310</v>
+        <v>198248</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>91601</v>
+        <v>93899</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>143238</v>
+        <v>141291</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>116617</v>
+        <v>117206</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>148620</v>
+        <v>150659</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>91087</v>
+        <v>89490</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>122322</v>
+        <v>122715</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>296658</v>
+        <v>297224</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>361740</v>
+        <v>359155</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>197143</v>
+        <v>194967</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>275574</v>
+        <v>278086</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>216568</v>
+        <v>213940</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>248270</v>
+        <v>250355</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>130418</v>
+        <v>131521</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>190886</v>
+        <v>193711</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>159789</v>
+        <v>159059</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>198497</v>
+        <v>200584</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>133024</v>
+        <v>134350</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>157849</v>
+        <v>156216</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>362285</v>
+        <v>362268</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>433563</v>
+        <v>429169</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>250946</v>
+        <v>250021</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>337982</v>
+        <v>335992</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>127156</v>
+        <v>128067</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>139389</v>
+        <v>139060</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>82149</v>
+        <v>80579</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>115315</v>
+        <v>112554</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>71122</v>
+        <v>71364</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>91771</v>
+        <v>92465</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>52323</v>
+        <v>52156</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>89357</v>
+        <v>88695</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>203639</v>
+        <v>207939</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>242448</v>
+        <v>243163</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>142067</v>
+        <v>143847</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>214316</v>
+        <v>214500</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>173297</v>
+        <v>171990</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>185312</v>
+        <v>186421</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>121663</v>
+        <v>118388</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>159129</v>
+        <v>158544</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>106788</v>
+        <v>105895</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>130606</v>
+        <v>131366</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>83815</v>
+        <v>84216</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>121249</v>
+        <v>121944</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>263518</v>
+        <v>268264</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>301991</v>
+        <v>304275</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>192146</v>
+        <v>192103</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>268806</v>
+        <v>268941</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>26648</v>
+        <v>26991</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>48335</v>
+        <v>47204</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>48043</v>
+        <v>47029</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>73296</v>
+        <v>76105</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>18489</v>
+        <v>17765</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>29714</v>
+        <v>28559</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>29340</v>
+        <v>29127</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>50856</v>
+        <v>51388</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>50566</v>
+        <v>48850</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>85845</v>
+        <v>84018</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>82417</v>
+        <v>83503</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>134898</v>
+        <v>133311</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>49634</v>
+        <v>50223</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>79970</v>
+        <v>80522</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>78879</v>
+        <v>77685</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>111915</v>
+        <v>113901</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>37598</v>
+        <v>36681</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>55316</v>
+        <v>53638</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>54261</v>
+        <v>53404</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>77433</v>
+        <v>77889</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>80531</v>
+        <v>78855</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>126302</v>
+        <v>124634</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>122729</v>
+        <v>123871</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>180711</v>
+        <v>181374</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>447319</v>
+        <v>446792</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>671302</v>
+        <v>665489</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>434841</v>
+        <v>430760</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>495876</v>
+        <v>497473</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>352182</v>
+        <v>356757</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>499149</v>
+        <v>500876</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>333228</v>
+        <v>335188</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>384429</v>
+        <v>384264</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>818995</v>
+        <v>822309</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1198614</v>
+        <v>1200365</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>791949</v>
+        <v>788107</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>899284</v>
+        <v>902569</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>526039</v>
+        <v>524474</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>768986</v>
+        <v>768151</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>515896</v>
+        <v>513391</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>582068</v>
+        <v>584341</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>430588</v>
+        <v>426873</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>584707</v>
+        <v>592385</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>407376</v>
+        <v>409818</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>444966</v>
+        <v>447265</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>928070</v>
+        <v>934780</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1334767</v>
+        <v>1326412</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>902414</v>
+        <v>896900</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1014200</v>
+        <v>1011245</v>
       </c>
     </row>
     <row r="24">
